--- a/classfiers/nano/knn/nano-knn-results.xlsx
+++ b/classfiers/nano/knn/nano-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9669014084507042</v>
+        <v>0.771070869662419</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.45</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.08695652173913042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9917840375586854</v>
+        <v>0.8373574782025486</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9684272300469483</v>
+        <v>0.8598591549295774</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9929577464788732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8603904126513466</v>
+        <v>0.6828638497652582</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8399648660518226</v>
+        <v>0.6924764890282132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6142105263157894</v>
+        <v>0.4447619047619048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6673974372315319</v>
+        <v>0.4903340298251139</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9560921670373116</v>
+        <v>0.8302302705119606</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/knn/nano-knn-results.xlsx
+++ b/classfiers/nano/knn/nano-knn-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.771070869662419</v>
+        <v>0.7322300596852958</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08695652173913042</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8373574782025486</v>
+        <v>0.8433260987520348</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.45</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8598591549295774</v>
+        <v>0.8569587628865979</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8163265306122449</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9880010908099264</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6828638497652582</v>
+        <v>0.686801199890919</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6924764890282132</v>
+        <v>0.7689999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4447619047619048</v>
+        <v>0.4251461988304094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4903340298251139</v>
+        <v>0.5001604093058367</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8302302705119606</v>
+        <v>0.8214634424049547</v>
       </c>
     </row>
   </sheetData>
